--- a/my-app/regionseng/11/main information/number of settlements.xlsx
+++ b/my-app/regionseng/11/main information/number of settlements.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\გამოქვეყნებული\საბოლოო მაჩვენებლები მუნიციპალიტეტები\დასახლებების რაოდენობა\დასახლებების რაოდენობა\რეგიონები\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5307A9E9-D5CB-49F3-829E-FC7B7CA8855C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0B087B-C557-4A60-8E76-E6BB8E749CD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="60" windowWidth="12900" windowHeight="15105" xr2:uid="{157BC4DF-CD5F-4BC0-87B4-84FB52E42541}"/>
+    <workbookView xWindow="570" yWindow="75" windowWidth="12900" windowHeight="15105" xr2:uid="{DC6212FB-B64B-4D65-BE7A-D5329F19A0A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mtskheta-Mtianeti" sheetId="1" r:id="rId1"/>
+    <sheet name="Tbilisi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Mtskheta-Mtianeti Region</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>By January 1, 2023 (unit)</t>
   </si>
   <si>
-    <t>Municipality</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -46,6 +40,9 @@
   </si>
   <si>
     <t>Village</t>
+  </si>
+  <si>
+    <t>Tbilisi Municipality</t>
   </si>
   <si>
     <t>Self-governing city</t>
@@ -66,6 +63,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -73,13 +77,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -98,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,16 +104,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -135,20 +128,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -156,27 +144,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,12 +477,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970B7DF2-0623-489C-830B-977B780907DE}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D79B7E-57E5-419B-B486-D34B14F45C47}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -504,81 +489,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>482</v>
+      <c r="B8" s="5">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
